--- a/results/roundabout_full.txt_30_yaw_change.xlsx
+++ b/results/roundabout_full.txt_30_yaw_change.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9CC074-1B8B-44D4-A9F8-7BE3CB786E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17180085-ABC3-4C9B-B265-5E3B6795BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roundabout_full.txt_30_yaw_chan" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +579,6033 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Yaw change at 30 km/h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$A$2:$A$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$B$2:$B$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-8.5235190000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0276486E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.0328279E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.9251906999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4.5405817000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.9904362000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6425390999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5.6344915000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.5725038999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.7521433000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-5.6492908000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.949514E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.2985563000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.143434E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1805988999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4037897000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.8477282000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5649578999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.9227459000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4710787999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.5566939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.1598994E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.7629149000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.8609239000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.7436738E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.3899081999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.8165835999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.2005233999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5088974000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7878889999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0721693E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.3850670000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7404726000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0546858E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3718802999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.9244956999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.5184799000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1515134000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2466459999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.863315E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.6241230999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.9031431000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.0256264E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.4007779E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.7790347999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.8068791999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.0344920000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.8457373000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.2996615000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.7646525E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.2569731000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-7.8746649999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-3.6246120000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4451049999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.971787E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.2788049999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.2849940000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4863766E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6612895999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.1735139999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.9183628000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.9166961E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.9704180000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.9813422000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8803572000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.767293E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.97052E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6974927000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5493761E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4062493000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.1577130000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2864293000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1396628000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.8546559999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.0057379E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.6994330000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.074899E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.7679011000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.506413E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-3.8977654E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.4808885999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.9030641999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-6.5498058999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-3.8069800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-8.3303775999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-4.696728E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.100839895</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.106296472</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-5.0480419999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-9.6354278000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-8.0443275999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-6.8697348000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-5.6838569999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-4.3607251999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-3.4675904E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.5406054000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-1.9200314E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.436832E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-8.5279550000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-4.189651E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.0764259999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.0125189999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.3889389999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.7380249999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.5737820000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.5461620000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.1249334999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.1537982E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.2871828E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2631791E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.3635246E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.3695403E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.2910715999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.349273E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.2483236E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.2839662E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.2320618E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.1147908E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.1244909000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0581805999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.3992769999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.3241739999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.6243989999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.5326639999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.3565139999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.6919780000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.7474010000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.5234100000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.9362010000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.1616029999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.9266709999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.4362709999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.8314600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.6091489999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.2193949999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.7700190000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.5737559999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.278609E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.6287200000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.9880399999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.8670800000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.8008699999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.4940200000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.06381E-4</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="0.00E+00">
+                  <c:v>-1.5299999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-1.1456299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.02833E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-1.5479799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="0.00E+00">
+                  <c:v>-6.1600000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="0.00E+00">
+                  <c:v>-7.2399999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="0.00E+00">
+                  <c:v>-8.6500000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.04991E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.30195E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.65711E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB4A-48D2-85E0-774E4572458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$A$2:$A$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$C$2:$C$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.7557829999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.116380961</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.9557163000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.110969185</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.6425799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.106816093</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8043472000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.103852299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.2925079999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.3268582000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.6574158999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1320971000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20312933499999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.12784410700000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.120234218</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.4183529000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.108021197</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0912731000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.10578665399999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5262976999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.10473144199999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.78984E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10329485200000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.7011199000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.101906895</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2403458999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.3756919999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-8.1004349000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6487747000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.1995987000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.2712027999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9287506000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0930796000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9209789999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-5.6628169999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.124684633</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-9.3489158000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-7.3100814E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-6.5617330000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.5572339999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9591281000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7641849E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.6622507000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.355555E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.3170546000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.4776360000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.0052411999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.0664667000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.7527218999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.5849116999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.32004844100000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.25894594700000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.22452530400000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-8.7553850000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.4731596000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.3765232000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.9076394999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.1032904E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-4.9557070000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-4.6167700000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.7959299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.1062909999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.6994150000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.7532749999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.0906621999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.8148669999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.1961289999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8.3490609999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.3336739999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.1955689999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.9694770000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.2022040000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.7823579999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.5825470000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.3310679999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.1739079999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.317352E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.1160600000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.8848540000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.4694710000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.0653410000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.8894820000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.3598980000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.244987E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.10597E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.4803690000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.5926790000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.481086E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.3576069999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.6168279999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.9498479999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.8576109999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.0680989999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.5412830000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.4703800000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.6395380000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.222058E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1666549999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.3018719999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.7046399999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.2678599999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.034575E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.7125999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.3666499999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.2246900000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.1316400000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.8569999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.5395600000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.8754899999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.6572200000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.2000099999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.8768800000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.7033299999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.0349000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.072188E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.3180399999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.0877599999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.5990099999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB4A-48D2-85E0-774E4572458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$A$2:$A$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$D$2:$D$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.6317834999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.6731710000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.109355587</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.3767550000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.103750063</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8155778000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.101557098</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6011877999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.10150714800000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.6283136000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5.5391647000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.16329484</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.476808703</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.9037445000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.9785443000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1211640999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8304769999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0059681000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4120864999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.2251871999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.5682219999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.4575881000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.2065177000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38900662699999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.64542186700000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.16262960500000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.12997727000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8853537000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.1620000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0237746999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.527156E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5852725999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0421298000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.0558123000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5.907018E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.144079339</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-9.5921539E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-7.7976190000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1771475E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.9128967999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.7071436000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0555804000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.116586965</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.9585875000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.2354329999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.0617980000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.7513538000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.89587636800000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.89587636800000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.13398908100000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.13398908100000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.67116514699999996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-8.2211702999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.12612827200000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-6.2292647999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.5342558000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.4315167E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-6.1500909999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.5105049999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.239423E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.2775579999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0444669E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.8910360000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.8540930000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.9412670000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.1874060000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.5443759999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.9817810000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.4789349999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.0217309999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.6005400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.7385650000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.2333730000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.072544E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.8792000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.6662020000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.5583289999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.7729059999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.6799129999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.5537020000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.2730540000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.9045709999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.8435140000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.7526450000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.3155559999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.2555499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.2093289999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.6958009999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8336839999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.80573E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.2156570000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.50735E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.487726E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.829469E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.2449259999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.229789E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.513384E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.030071E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.017829E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.2527180000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.5280800000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.4270799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.037107E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0612599999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.9773600000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.5858099999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.84634E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.7765300000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.1072799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.8744759999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.1853599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.432209E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.5804199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.5348299999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.5405499999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.21014E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB4A-48D2-85E0-774E4572458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$A$2:$A$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'roundabout_full.txt_30_yaw_chan'!$E$2:$E$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="205"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.7557829999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.116380961</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.9557163000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.110969185</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.6425799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.106816093</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8043472000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.103852299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.2925079999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.3268582000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4.6574158999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1320971000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20312933499999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.12784410700000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.120234218</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.4183529000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.108021197</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0912731000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.10578665399999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5262976999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.10473144199999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.78984E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10329485200000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.7011199000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.101906895</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2403458999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.3756919999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-8.1004349000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6487747000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.1995987000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.2712027999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9287506000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0930796000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9209789999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.37087841700000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.3310954000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.3963166000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2757545000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2137874E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.9528130000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.52996E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.6908169999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-7.3821329999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.8061450000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5717229999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.506754E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.0149019999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.1194710000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0847870000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6735699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7576476000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.4019190000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.9152934999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8645628000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.7899775999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.1758730000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7663189999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6373440999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.2894830000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5444451999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3939259000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.2514651999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.4044999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1269876E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.8749230000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.3653549999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-3.3110739999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.0180428E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-4.8393029999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.9245898999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.3622862000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-7.4727507999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-4.2867476000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-9.3304578999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.10076254900000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-5.5288950000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.10068574199999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-9.9553737000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-8.3838105999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.455419348</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.3723689000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.4627887000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.9261144999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.5666293999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.3130979999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.1242357999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.3339855999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.0413515E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.5100364999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.764315E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.5875861000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.4433738999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.3223987E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.2183616E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.1269504E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.2269963E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.0220109999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.5311410000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.044631E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.566957E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8.3456569999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.183483E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.877607E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.5595460000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.1545610000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.5734690000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.3532960000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.8499750000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.6092810000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.4452229999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.2677240000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.6208E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.696506E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.567087E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.856398E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.1281500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.0298360000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.263218E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.686697E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.6102449999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7970530000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.3395449999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2793520000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.4283060000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.064817E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.017135E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.135685E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.4674000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.0885899999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9.0313199999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.73393E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.4326499999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.1820599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.3552899999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.1155799999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.7112500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.25869E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.7799319999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="0.00E+00">
+                  <c:v>-1.9199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="0.00E+00">
+                  <c:v>-2.3499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="0.00E+00">
+                  <c:v>-2.94E-5</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="0.00E+00">
+                  <c:v>-3.7799999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB4A-48D2-85E0-774E4572458D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="870730671"/>
+        <c:axId val="870732751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="870730671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870732751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="870732751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>YAw change, rad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870730671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82B0F4C-A8FD-4EEC-8F76-735D541EC9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,10 +6902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4287,5 +10316,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>